--- a/Docs/Tablas Lab 4.xlsx
+++ b/Docs/Tablas Lab 4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/202110/Laboratorios/Lab 04 - Ordenamientos Iterativos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Tareas\ESTRUC. DE DATOS Y ALGORITMOS\lab4\LabSorts-S04-G09\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3E197636-5D23-49AC-AB0F-C814FF421F77}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76952C34-2116-484D-AB7E-15A5B00D7539}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" activeTab="5" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="6375" yWindow="2265" windowWidth="21600" windowHeight="11505" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,8 +663,8 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>609.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20</c:v>
@@ -831,35 +831,35 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>640.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>642.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>644.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>1287.26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>1931.8899999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>3219.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34</c:v>
+                  <c:v>5151.0399999999991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55</c:v>
+                  <c:v>8370.1899999999987</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>13521.229999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -998,35 +998,35 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>46.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>66.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>76.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>86.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>96.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>106.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
+                  <c:v>116.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>126.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1252,7 +1252,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2494,8 +2494,8 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>609.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20</c:v>
@@ -2911,7 +2911,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3233,35 +3233,35 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>640.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>642.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>644.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>1287.26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>1931.8899999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>3219.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34</c:v>
+                  <c:v>5151.0399999999991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55</c:v>
+                  <c:v>8370.1899999999987</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>13521.229999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3650,7 +3650,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3972,35 +3972,35 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>46.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>66.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>76.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>86.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>96.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>106.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
+                  <c:v>116.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>126.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4389,7 +4389,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7330,7 +7330,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{39C68510-AE01-4761-A7FB-5F1B76E923F7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7473,7 +7473,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8660230" cy="6291513"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7827,19 +7827,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.1171875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.52734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.76171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -7853,21 +7853,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
-      <c r="B2" s="4">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>4</v>
+      <c r="B2">
+        <v>609.38</v>
+      </c>
+      <c r="C2">
+        <v>640.63</v>
+      </c>
+      <c r="D2">
+        <v>31.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -7879,10 +7879,10 @@
       </c>
       <c r="D3" s="4">
         <f>D2+15</f>
-        <v>19</v>
+        <v>46.25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>4000</v>
       </c>
@@ -7891,14 +7891,14 @@
       </c>
       <c r="C4" s="4">
         <f>C3+C2</f>
-        <v>3</v>
+        <v>642.63</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ref="D4:D11" si="0">D3+10</f>
-        <v>29</v>
+        <v>56.25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
@@ -7907,14 +7907,14 @@
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:C11" si="1">C4+C3</f>
-        <v>5</v>
+        <v>644.63</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>66.25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>16000</v>
       </c>
@@ -7923,14 +7923,14 @@
       </c>
       <c r="C6" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>1287.26</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>76.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>32000</v>
       </c>
@@ -7939,14 +7939,14 @@
       </c>
       <c r="C7" s="4">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>1931.8899999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>86.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>64000</v>
       </c>
@@ -7955,14 +7955,14 @@
       </c>
       <c r="C8" s="4">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>3219.1499999999996</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>96.25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>128000</v>
       </c>
@@ -7971,14 +7971,14 @@
       </c>
       <c r="C9" s="4">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>5151.0399999999991</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>106.25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>256000</v>
       </c>
@@ -7987,14 +7987,14 @@
       </c>
       <c r="C10" s="4">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>8370.1899999999987</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>116.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>512000</v>
       </c>
@@ -8003,14 +8003,14 @@
       </c>
       <c r="C11" s="4">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>13521.229999999998</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>126.25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>4000</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>32000</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>64000</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>128000</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>256000</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>512000</v>
       </c>
@@ -8191,12 +8191,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8411,15 +8408,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8444,10 +8445,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/Tablas Lab 4.xlsx
+++ b/Docs/Tablas Lab 4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Tareas\ESTRUC. DE DATOS Y ALGORITMOS\lab4\LabSorts-S04-G09\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76952C34-2116-484D-AB7E-15A5B00D7539}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DE72F0-AB3C-41BF-9B4B-BA38B5B3DB9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="2265" windowWidth="21600" windowHeight="11505" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -667,31 +667,19 @@
                   <c:v>609.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>2921.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>11046.87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>48265.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>206593.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>748359.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -835,31 +823,19 @@
                   <c:v>640.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2765.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>642.63</c:v>
+                  <c:v>12937.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>644.63</c:v>
+                  <c:v>46828</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1287.26</c:v>
+                  <c:v>185343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1931.8899999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3219.1499999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5151.0399999999991</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8370.1899999999987</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13521.229999999998</c:v>
+                  <c:v>835078.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1002,31 +978,25 @@
                   <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.25</c:v>
+                  <c:v>78.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.25</c:v>
+                  <c:v>171.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.25</c:v>
+                  <c:v>421.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.25</c:v>
+                  <c:v>1031.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86.25</c:v>
+                  <c:v>2312.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>106.25</c:v>
+                  <c:v>5437.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>116.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>126.25</c:v>
+                  <c:v>37656.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1579,34 +1549,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>53656.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>491031.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>3460203.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1708,34 +1657,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>55687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>435515</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>3571750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,34 +1675,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>55687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>435515</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>3571750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1914,34 +1821,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>2531.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>14062.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>58578.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2498,31 +2384,19 @@
                   <c:v>609.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>2921.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>11046.87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>48265.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>206593.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>748359.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2663,34 +2537,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>53656.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>491031.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>3460203.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3237,31 +3090,19 @@
                   <c:v>640.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2765.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>642.63</c:v>
+                  <c:v>12937.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>644.63</c:v>
+                  <c:v>46828</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1287.26</c:v>
+                  <c:v>185343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1931.8899999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3219.1499999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5151.0399999999991</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8370.1899999999987</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13521.229999999998</c:v>
+                  <c:v>835078.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3402,34 +3243,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>55687.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>435515</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>3571750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3976,31 +3796,25 @@
                   <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.25</c:v>
+                  <c:v>78.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.25</c:v>
+                  <c:v>171.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.25</c:v>
+                  <c:v>421.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.25</c:v>
+                  <c:v>1031.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86.25</c:v>
+                  <c:v>2312.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>106.25</c:v>
+                  <c:v>5437.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>116.25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>126.25</c:v>
+                  <c:v>37656.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4141,34 +3955,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>2531.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>14062.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>58578.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7330,7 +7123,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{39C68510-AE01-4761-A7FB-5F1B76E923F7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7341,7 +7134,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7374,7 +7167,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659519" cy="6284148"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7407,7 +7200,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659519" cy="6284148"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7440,7 +7233,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659519" cy="6284148"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7473,7 +7266,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8660230" cy="6291513"/>
+    <xdr:ext cx="8669364" cy="6288114"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7828,7 +7621,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7872,14 +7665,13 @@
         <v>2000</v>
       </c>
       <c r="B3" s="4">
-        <v>20</v>
+        <v>2921.87</v>
       </c>
       <c r="C3" s="4">
-        <v>2</v>
+        <v>2765.63</v>
       </c>
       <c r="D3" s="4">
-        <f>D2+15</f>
-        <v>46.25</v>
+        <v>78.13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7887,15 +7679,13 @@
         <v>4000</v>
       </c>
       <c r="B4" s="4">
-        <v>30</v>
+        <v>11046.87</v>
       </c>
       <c r="C4" s="4">
-        <f>C3+C2</f>
-        <v>642.63</v>
+        <v>12937.5</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D11" si="0">D3+10</f>
-        <v>56.25</v>
+        <v>171.88</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7903,15 +7693,13 @@
         <v>8000</v>
       </c>
       <c r="B5" s="4">
-        <v>40</v>
+        <v>48265.63</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C11" si="1">C4+C3</f>
-        <v>644.63</v>
+        <v>46828</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>66.25</v>
+        <v>421.88</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7919,15 +7707,13 @@
         <v>16000</v>
       </c>
       <c r="B6" s="4">
-        <v>50</v>
+        <v>206593.75</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="1"/>
-        <v>1287.26</v>
+        <v>185343</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>76.25</v>
+        <v>1031.25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7935,80 +7721,50 @@
         <v>32000</v>
       </c>
       <c r="B7" s="4">
-        <v>60</v>
+        <v>748359.38</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="1"/>
-        <v>1931.8899999999999</v>
+        <v>835078.13</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>86.25</v>
+        <v>2312.5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>64000</v>
       </c>
-      <c r="B8" s="4">
-        <v>70</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="1"/>
-        <v>3219.1499999999996</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>96.25</v>
+        <v>5437.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>128000</v>
       </c>
-      <c r="B9" s="4">
-        <v>80</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="1"/>
-        <v>5151.0399999999991</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>106.25</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>256000</v>
       </c>
-      <c r="B10" s="4">
-        <v>90</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="1"/>
-        <v>8370.1899999999987</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>116.25</v>
+        <v>37656.25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>512000</v>
       </c>
-      <c r="B11" s="4">
-        <v>100</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="1"/>
-        <v>13521.229999999998</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>126.25</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
@@ -8029,13 +7785,13 @@
         <v>1000</v>
       </c>
       <c r="B15" s="4">
-        <v>50</v>
+        <v>53656.25</v>
       </c>
       <c r="C15" s="4">
-        <v>2</v>
+        <v>55687.5</v>
       </c>
       <c r="D15" s="4">
-        <v>35</v>
+        <v>2531.25</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -8043,14 +7799,13 @@
         <v>2000</v>
       </c>
       <c r="B16" s="4">
-        <v>60</v>
+        <v>491031.25</v>
       </c>
       <c r="C16" s="4">
-        <v>4</v>
+        <v>435515</v>
       </c>
       <c r="D16" s="4">
-        <f>D15+43</f>
-        <v>78</v>
+        <v>14062.5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8058,128 +7813,70 @@
         <v>4000</v>
       </c>
       <c r="B17" s="4">
-        <v>70</v>
+        <v>3460203.13</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" ref="C17:C24" si="2">C16+C15</f>
-        <v>6</v>
+        <v>3571750</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" ref="D17:D24" si="3">D16+10</f>
-        <v>88</v>
+        <v>58578.13</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
-      <c r="B18" s="4">
-        <v>80</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="3"/>
-        <v>98</v>
-      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
-      <c r="B19" s="4">
-        <v>90</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>32000</v>
       </c>
-      <c r="B20" s="4">
-        <v>100</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>64000</v>
       </c>
-      <c r="B21" s="4">
-        <v>110</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>128000</v>
       </c>
-      <c r="B22" s="4">
-        <v>120</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" si="3"/>
-        <v>138</v>
-      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>256000</v>
       </c>
-      <c r="B23" s="4">
-        <v>130</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="3"/>
-        <v>148</v>
-      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>512000</v>
       </c>
-      <c r="B24" s="4">
-        <v>140</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" si="2"/>
-        <v>178</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="3"/>
-        <v>158</v>
-      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8191,12 +7888,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="04b510ef1bc187d79b842c792d256c41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9049981c3eb1ee76226ec9e2f8ecd7b4" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -8407,7 +8098,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8416,16 +8107,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03EB27C0-F9F6-4037-B95E-326B818673EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8444,10 +8132,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>